--- a/papers/总表.xlsx
+++ b/papers/总表.xlsx
@@ -16,30 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>Dataset and Method</t>
   </si>
   <si>
-    <t>DF</t>
-  </si>
-  <si>
     <t>DISC</t>
   </si>
   <si>
+    <t>dataset2</t>
+  </si>
+  <si>
     <t>dataset3</t>
   </si>
   <si>
     <t>dataset4</t>
   </si>
   <si>
-    <t>rank(people)</t>
+    <t>rank</t>
   </si>
   <si>
     <t>rank(GPT)</t>
   </si>
   <si>
-    <t>EC</t>
+    <t>F1(P,R)</t>
+  </si>
+  <si>
+    <t>Fact Coverage</t>
   </si>
   <si>
     <t>BLEU</t>
@@ -51,7 +54,7 @@
     <t>CPT</t>
   </si>
   <si>
-    <t>method1</t>
+    <t>Mixture-of-Domain-Adapters</t>
   </si>
   <si>
     <t>1B</t>
@@ -66,19 +69,28 @@
     <t>13B</t>
   </si>
   <si>
-    <t>method2</t>
+    <t>Plug-and-Play</t>
+  </si>
+  <si>
+    <t>Transformerpatcher</t>
   </si>
   <si>
     <t>SFT</t>
   </si>
   <si>
-    <t>method3</t>
-  </si>
-  <si>
-    <t>method4</t>
-  </si>
-  <si>
-    <t>method5</t>
+    <t>KITLM</t>
+  </si>
+  <si>
+    <t>LLaMA Pro</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>数据量在增加减少的过程中正确率有一个变化，不同规模数据集，</t>
+  </si>
+  <si>
+    <t>这个表格显示的是在统一数据量下的结果</t>
   </si>
 </sst>
 </file>
@@ -91,14 +103,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,48 +561,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,97 +615,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,21 +1061,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="7" width="4.88888888888889" customWidth="1"/>
-    <col min="10" max="11" width="4.88888888888889" customWidth="1"/>
-    <col min="14" max="15" width="4.88888888888889" customWidth="1"/>
-    <col min="18" max="19" width="4.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="29.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="8.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
+    <col min="7" max="8" width="4.88888888888889" customWidth="1"/>
+    <col min="9" max="9" width="8.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="15.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="5.66666666666667" customWidth="1"/>
+    <col min="12" max="13" width="4.88888888888889" customWidth="1"/>
+    <col min="14" max="14" width="8.66666666666667" customWidth="1"/>
+    <col min="15" max="15" width="15.2222222222222" customWidth="1"/>
+    <col min="16" max="16" width="5.66666666666667" customWidth="1"/>
+    <col min="17" max="18" width="4.88888888888889" customWidth="1"/>
+    <col min="19" max="19" width="8.66666666666667" customWidth="1"/>
+    <col min="20" max="20" width="15.2222222222222" customWidth="1"/>
+    <col min="21" max="21" width="5.66666666666667" customWidth="1"/>
+    <col min="22" max="23" width="4.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,26 +1100,30 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1109,36 +1131,40 @@
         <v>5</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1151,458 +1177,595 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="V3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="30" spans="5:10">
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="5:10">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
+  <mergeCells count="106">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A27"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="A1:C3"/>
+    <mergeCell ref="E30:J33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
